--- a/senedler/keywords/turkce-dublyaj.xlsx
+++ b/senedler/keywords/turkce-dublyaj.xlsx
@@ -1058,10 +1058,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1114,7 +1115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1235,7 +1236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1268,7 +1269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1290,7 +1291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1356,7 +1357,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1411,7 +1412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1422,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1444,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1455,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1477,7 +1478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1499,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1565,7 +1566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1576,7 +1577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1598,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1609,7 +1610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1642,7 +1643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1653,7 +1654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -1708,7 +1709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -1731,7 +1732,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="C1:C60"/>
+  <autoFilter ref="C1:C60">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="1 тыс. – 10 тыс."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>